--- a/xlsxwriter/test/comparison/xlsx_files/chartsheet07.xlsx
+++ b/xlsxwriter/test/comparison/xlsx_files/chartsheet07.xlsx
@@ -149,24 +149,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="43911040"/>
-        <c:axId val="46363392"/>
+        <c:axId val="61296640"/>
+        <c:axId val="61298176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43911040"/>
+        <c:axId val="61296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46363392"/>
+        <c:crossAx val="61298176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46363392"/>
+        <c:axId val="61298176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,7 +174,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43911040"/>
+        <c:crossAx val="61296640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -195,8 +195,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
